--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12575"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -394,6 +394,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -401,25 +409,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,101 +501,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,55 +564,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,121 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,15 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -800,6 +791,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,15 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -850,6 +841,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,21 +877,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,139 +891,139 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,8 +1409,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4" outlineLevelCol="5"/>
@@ -1530,7 +1530,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" ht="41" customHeight="1" spans="1:3">
+    <row r="10" ht="41" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1539,6 +1539,12 @@
       </c>
       <c r="C10" s="14" t="s">
         <v>26</v>
+      </c>
+      <c r="D10">
+        <v>320</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:3">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215"/>
+    <workbookView windowWidth="28800" windowHeight="12395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,8 +335,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
@@ -394,6 +394,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -403,52 +462,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,78 +531,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,67 +564,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,109 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,6 +776,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,212 +877,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,8 +1409,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4" outlineLevelCol="5"/>
@@ -1541,10 +1541,10 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>320</v>
+        <v>320000</v>
       </c>
       <c r="E10">
-        <v>150</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:3">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Chi tiết Sản phẩm</t>
   </si>
@@ -23,6 +23,22 @@
   </si>
   <si>
     <t>Men vi khuẩn sống Việt Nhật</t>
+  </si>
+  <si>
+    <t>Link Ảnh 
+minh họa</t>
+  </si>
+  <si>
+    <t>Linh Ảnh sản phẩm</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/proxy/Ptcko8MsmOFZ8EsIrCDAf-UOnH5ADsaQf2rCCS3dETy7k5w5Ywsi1VRSQzbaeEc3VvPZS4F6-U5dG60hl-8yoh-omyq0ClFs</t>
+  </si>
+  <si>
+    <t>https://21dollars.net/uploads/products/89385361900207f274.jpg</t>
+  </si>
+  <si>
+    <t>Giá thành tiền</t>
   </si>
   <si>
     <t>Thành phần</t>
@@ -66,10 +82,13 @@
 </t>
   </si>
   <si>
+    <t>https://images.discordapp.net/avatars/812061306726645791/2d1a615c46f82ca3e870ef7f4bf35a59.png?size=128</t>
+  </si>
+  <si>
     <t>Hương vị</t>
   </si>
   <si>
-    <t>👉 Sản phẩm có mùi thơm đặc trưng của đậu</t>
+    <t>👉 Sản phẩm có mùi thơm đặc trưng của đậu, khi ăn có vị ngậy</t>
   </si>
   <si>
     <t>👉 Dung dịch men vi sinh sống sẽ có mùi đặc trưng của quá trình lên men</t>
@@ -174,19 +193,19 @@
     <t>Giá</t>
   </si>
   <si>
-    <t>Sản phẩm có giá 320k/10 gói ✅ (Một gói bánh có 8 miếng)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sản phẩm có giá 150k/1 hộp 20 ống ( mỗi ống 10ml) ✅ </t>
+    <t>Sản phẩm có giá 320k/10 gói ✅ (Một gói bánh có 8 miếng</t>
+  </si>
+  <si>
+    <t>Sản phẩm có giá  150k/1 hộp 20 ống ( mỗi ống 10ml) ✅</t>
   </si>
   <si>
     <t>Sản phẩm đề cử</t>
   </si>
   <si>
-    <t>Để kích thích sự thèm ăn và tiêu hoá tốt hơn bạn có thể bổ sung kèm men vi khuẩn sống Việt nhật của Shop phân phối</t>
-  </si>
-  <si>
-    <t>Bánh dinh dưỡng Hebi</t>
+    <t>Để kích thích sự thèm ăn và tiêu hoá tốt hơn bạn có thể bổ sung kèm men vi khuẩn sống Việt nhật của Shop phân phối. TPBVSK Men Vi Khuẩn Sống VIETNHAT MPBio bổ sung lợi khuẩn đường tiêu hóa giúp tăng cường tiêu hóa. Hỗ trợ các triệu chứng rối loạn tiêu hóa, táo bón, khó tiêu, phân sống do loạn khuẩn đường ruột, do dùng kháng sinh ngày dài.</t>
+  </si>
+  <si>
+    <t>Bánh dinh dưỡng Hebi bổ sung năng lượng cho ngày dài năng động!!!</t>
   </si>
   <si>
     <t>Nhận biết mặt hàng</t>
@@ -211,25 +230,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">✅ HÀNG HÓA đảm bảo 100% Chính Hãng.
-✅ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">GIÁ BÁN theo đúng qui định của nhà sản xuất.
-✅ </t>
+      <t xml:space="preserve">✅ </t>
     </r>
     <r>
       <rPr>
@@ -264,16 +265,14 @@
       </rPr>
       <t>NHẬN HÀNG &gt; Khách hàng kiểm tra &gt; KH. Thanh Toán.
 ✅ ĐỔI trả hàng trong vòng 07 ngày.
-✅ Đội ngũ TƯ VẤN nhiệt tình 24h/ 07 ngày .</t>
+Thời gian giao hàng tùy thuộc vào vị trí của bạn</t>
     </r>
   </si>
   <si>
-    <t>✅ HÀNG HÓA đảm bảo 100% Chính Hãng.
-✅  GIÁ BÁN theo đúng qui định của nhà sản xuất.
-✅  GIAO HÀNG Toàn quốc- MIỄN PHÍ giao hàng nội thành Hà nội.
+    <t>✅  GIAO HÀNG Toàn quốc- MIỄN PHÍ giao hàng nội thành Hà nội.
 ✅  NHẬN HÀNG &gt; Khách hàng kiểm tra &gt; KH. Thanh Toán.
 ✅ ĐỔI trả hàng trong vòng 07 ngày.
-✅ Đội ngũ TƯ VẤN nhiệt tình 24h/ 07 ngày .</t>
+Thời gian giao hàng tùy thuộc vào vị trí của bạn</t>
   </si>
   <si>
     <t>Đối tượng sử dụng</t>
@@ -290,40 +289,30 @@
 👉 Người bị đầy hơi, khó tiêu, táo bón, tiêu chảy, phân sống do loạn khuẩn đường ruột và dùng kháng sinh kéo dài. Người đang trong giai đoạn phục hồi bệnh.</t>
   </si>
   <si>
-    <t>Giới thiệu</t>
-  </si>
-  <si>
-    <t>Bánh dinh dưỡng Hebi bổ sung năng lượng cho ngày dài năng động!!!</t>
-  </si>
-  <si>
-    <t>TPBVSK Men Vi Khuẩn Sống VIETNHAT MPBio bổ sung lợi khuẩn đường tiêu hóa giúp tăng cường tiêu hóa. Hỗ trợ các triệu chứng rối loạn tiêu hóa, táo bón, khó tiêu, phân sống do loạn khuẩn đường ruột, do dùng kháng sinh ngày dài.</t>
-  </si>
-  <si>
     <t>Trẻ dưới 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mỗi ngày bổ sung thêm khoảng 3 miếng ăn chia trong ngày.
-Có thể bóp ra pha với sữa hoặc quấy cùng cháo.
- Nếu bé ăn đc có thể ăn trực tiếp luôn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dùng mỗi ngày 1 ống sau bữa ăn no. </t>
+    <t xml:space="preserve"> Trẻ dưới 2 tuối mỗi ngày bổ sung thêm khoảng 3 miếng ăn chia trong ngày. Có thể bóp ra pha với sữa hoặc quấy cùng cháo. Nếu bé ăn được có thể ăn trực tiếp luôn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trẻ dưới 2 tuối dùng mỗi ngày 1 ống sau bữa ăn no. </t>
   </si>
   <si>
     <t>Trẻ 2 trở lên</t>
   </si>
   <si>
-    <t>Mỗi ngày bổ sung khoảng 6-8 miếng (mỗi gói bánh có 8 miếng).
-Cho bé ăn vào các bữa phụ cách xa bữa chính để bé ko bỏ bữa</t>
-  </si>
-  <si>
-    <t>dùng 2 ống/ ngày</t>
+    <t>Trẻ từ 2-15 tuổi mỗi ngày bổ sung khoảng 6-8 miếng (mỗi gói bánh có 8 miếng).
+Cho bé ăn vào các bữa phụ cách xa bữa chính để bé không bỏ bữa</t>
+  </si>
+  <si>
+    <t>Trẻ từ 2-15 tuổi có thể dùng 2 ống/ngày</t>
   </si>
   <si>
     <t>Người lớn</t>
   </si>
   <si>
-    <t>người già, người mới ốm dậy có thể ăn 01 – 02 gói/ ngày theo nhu cầu năng lượng của cơ thể.</t>
+    <t>Người già, người lớn, người mới ốm dậy có thể ăn 01 – 02 gói/ ngày
+ theo nhu cầu năng lượng của cơ thể.</t>
   </si>
   <si>
     <t>Người lớn dùng 4 ống/ ngày</t>
@@ -334,12 +323,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +340,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -377,7 +372,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -395,16 +405,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,32 +473,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,31 +497,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,50 +534,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,7 +559,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +574,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,169 +634,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,58 +799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,215 +843,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,233 +1438,277 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4"/>
   <cols>
-    <col min="1" max="1" width="23.5555555555556" style="2" customWidth="1"/>
-    <col min="2" max="2" width="94.8055555555556" customWidth="1"/>
-    <col min="3" max="3" width="91.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="23.5555555555556" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="68.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="55.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="10.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="174" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="174" customHeight="1" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" ht="118" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.8" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" ht="34" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="22.8" spans="1:6">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="14">
+        <v>320000</v>
+      </c>
+      <c r="C3" s="14">
+        <v>150000</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" ht="108" spans="1:6">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" ht="236" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" ht="153" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" ht="142" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" ht="216" spans="1:6">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="94" customHeight="1" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" ht="162" spans="1:4">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="58" customHeight="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="126" spans="1:4">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" ht="72" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" ht="41" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" ht="72" spans="1:6">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10">
-        <v>320000</v>
-      </c>
-      <c r="E10">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="11" ht="42" customHeight="1" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" ht="93" customHeight="1" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" ht="118" customHeight="1" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="72" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" ht="91" customHeight="1" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" ht="90" spans="1:4">
+      <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" ht="59" customHeight="1" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" ht="72" spans="1:4">
+      <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" ht="54" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" ht="108" spans="1:4">
+      <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" ht="49" customHeight="1" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" ht="36" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" ht="36" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="22" t="s">
         <v>50</v>
       </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" ht="36" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Chi tiết Sản phẩm</t>
   </si>
@@ -323,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -405,7 +405,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,32 +464,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,8 +479,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -473,19 +510,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,52 +540,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,13 +580,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,19 +658,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,72 +694,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -700,61 +706,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,8 +799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +829,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -840,6 +849,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,30 +883,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -898,148 +898,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4"/>
@@ -1476,7 +1476,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="40.8" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="72" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" ht="108" spans="1:6">
+    <row r="4" ht="162" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="36" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" ht="216" spans="1:6">
+    <row r="6" ht="252" spans="1:6">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" ht="162" spans="1:4">
+    <row r="7" ht="198" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" ht="126" spans="1:4">
+    <row r="8" ht="144" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" ht="72" spans="1:4">
+    <row r="9" ht="90" spans="1:4">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1616,11 +1616,9 @@
       <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" ht="72" spans="1:4">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" ht="126" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1644,7 +1642,7 @@
       </c>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" ht="72" spans="1:4">
+    <row r="15" ht="90" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1668,7 +1666,7 @@
       </c>
       <c r="D16" s="18"/>
     </row>
-    <row r="17" ht="36" spans="1:4">
+    <row r="17" ht="54" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1678,7 @@
       </c>
       <c r="D17" s="18"/>
     </row>
-    <row r="18" ht="36" spans="1:4">
+    <row r="18" ht="72" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +1690,7 @@
       </c>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" ht="36" spans="1:4">
+    <row r="19" ht="54" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12395"/>
+    <workbookView windowWidth="23040" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Chi tiết Sản phẩm</t>
   </si>
@@ -80,9 +80,6 @@
 👉 Enterococus faecium 10ˆ8 CFU
 👉 Phụ liệu: nước vừa đủ 10ml
 </t>
-  </si>
-  <si>
-    <t>https://images.discordapp.net/avatars/812061306726645791/2d1a615c46f82ca3e870ef7f4bf35a59.png?size=128</t>
   </si>
   <si>
     <t>Hương vị</t>
@@ -324,9 +321,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -405,9 +402,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,13 +499,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -434,22 +508,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,92 +516,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,181 +577,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,11 +793,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,48 +858,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,11 +884,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,148 +895,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1440,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20.4"/>
@@ -1514,21 +1511,19 @@
       <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" ht="36" spans="1:6">
       <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -1536,13 +1531,13 @@
     </row>
     <row r="6" ht="252" spans="1:6">
       <c r="A6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -1550,49 +1545,49 @@
     </row>
     <row r="7" ht="198" spans="1:4">
       <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="18"/>
     </row>
     <row r="8" ht="144" spans="1:4">
       <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="18"/>
     </row>
     <row r="9" ht="90" spans="1:4">
       <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="18"/>
     </row>
     <row r="10" ht="72" spans="1:6">
       <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -1600,7 +1595,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1608,97 +1603,97 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="18"/>
     </row>
     <row r="13" ht="126" spans="1:4">
       <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="D13" s="18"/>
     </row>
     <row r="14" ht="90" spans="1:4">
       <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="15" ht="90" spans="1:4">
       <c r="A15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16" ht="108" spans="1:4">
       <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="18"/>
     </row>
     <row r="17" ht="54" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="18"/>
     </row>
     <row r="18" ht="72" spans="1:4">
       <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="D18" s="18"/>
     </row>
     <row r="19" ht="54" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="18"/>
     </row>
